--- a/wine.xlsx
+++ b/wine.xlsx
@@ -8,19 +8,22 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="wine" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="wine_al" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Категория</t>
+  </si>
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -34,25 +37,10 @@
     <t xml:space="preserve">Картинка</t>
   </si>
   <si>
-    <t xml:space="preserve">Изабелла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">izabella.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гранатовый браслет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мускат розовый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granatovyi_braslet.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шардоне</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shardone.png</t>
+    <t xml:space="preserve">Акция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белые вина</t>
   </si>
   <si>
     <t xml:space="preserve">Белая леди</t>
@@ -64,12 +52,33 @@
     <t xml:space="preserve">belaya_ledi.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Выгодное предложение</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ркацители</t>
   </si>
   <si>
     <t xml:space="preserve">rkaciteli.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Кокур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kokur.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красные вина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черный лекарь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chernyi_lekar.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Хванчкара</t>
   </si>
   <si>
@@ -77,6 +86,36 @@
   </si>
   <si>
     <t xml:space="preserve">hvanchkara.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киндзмараули</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саперави</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kindzmarauli.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Напитки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чача</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chacha.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коньяк кизиловый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konyak_kizilovyi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коньяк классический</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konyak_klassicheskyi.png</t>
   </si>
 </sst>
 </file>
@@ -86,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -114,15 +153,29 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,20 +220,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,120 +438,206 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>399</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>499</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>399</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="n">
+        <v>299</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>399</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>499</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
